--- a/input/industry/Cement_Production.xlsx
+++ b/input/industry/Cement_Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E4548-0840-4AD5-97A6-2E86C5BD85CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A9917-7E65-4DD8-8E7A-523993CB0802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{4D85E0FE-EF96-402F-9546-FD1EF300F86D}"/>
+    <workbookView xWindow="28680" yWindow="-7365" windowWidth="29040" windowHeight="17640" xr2:uid="{4D85E0FE-EF96-402F-9546-FD1EF300F86D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -984,6 +984,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1354,7 +1355,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2279,7 +2280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1766455728"/>
@@ -2361,7 +2362,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2393,7 +2394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1766455248"/>
@@ -2435,7 +2436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2465,7 +2466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3285,23 +3286,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE5621-169D-4AA9-909D-6640E1DD0E59}">
   <dimension ref="A1:CE172"/>
   <sheetViews>
-    <sheetView topLeftCell="AM110" workbookViewId="0">
-      <selection activeCell="BA150" sqref="BA150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="23"/>
-    <col min="4" max="4" width="12.28515625" style="23" customWidth="1"/>
-    <col min="5" max="17" width="11.42578125" style="23"/>
-    <col min="18" max="18" width="12.28515625" style="23" customWidth="1"/>
-    <col min="19" max="25" width="11.42578125" style="23"/>
-    <col min="26" max="26" width="11.42578125" style="23" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="1" width="22.1796875" style="23" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="23"/>
+    <col min="4" max="4" width="12.26953125" style="23" customWidth="1"/>
+    <col min="5" max="17" width="11.453125" style="23"/>
+    <col min="18" max="18" width="12.26953125" style="23" customWidth="1"/>
+    <col min="19" max="25" width="11.453125" style="23"/>
+    <col min="26" max="26" width="11.453125" style="23" customWidth="1"/>
+    <col min="27" max="16384" width="11.453125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>9871</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>16</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>17</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>61052</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
@@ -6162,7 +6166,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>24</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>25</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>253</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>28</v>
       </c>
@@ -6855,7 +6859,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>29</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>32</v>
       </c>
@@ -7647,7 +7651,7 @@
         <v>2380000</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
@@ -7917,7 +7921,7 @@
       <c r="CD25" s="32"/>
       <c r="CE25" s="32"/>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>235</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -8211,7 +8215,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>38</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>41</v>
       </c>
@@ -8793,7 +8797,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>43</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>44</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>45</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>46</v>
       </c>
@@ -9545,7 +9549,7 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>47</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>48</v>
       </c>
@@ -9915,7 +9919,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>252</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>51</v>
       </c>
@@ -10401,7 +10405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>54</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>55</v>
       </c>
@@ -10703,7 +10707,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>58</v>
       </c>
@@ -10923,7 +10927,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>251</v>
       </c>
@@ -11096,7 +11100,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>61</v>
       </c>
@@ -11345,7 +11349,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>62</v>
       </c>
@@ -11442,7 +11446,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>250</v>
       </c>
@@ -11475,7 +11479,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>249</v>
       </c>
@@ -11696,7 +11700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>65</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>236</v>
       </c>
@@ -12194,7 +12198,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>237</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>70</v>
       </c>
@@ -12692,7 +12696,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>247</v>
       </c>
@@ -12941,7 +12945,7 @@
         <v>68300</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>248</v>
       </c>
@@ -13190,7 +13194,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>74</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>76</v>
       </c>
@@ -13688,7 +13692,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>77</v>
       </c>
@@ -13937,7 +13941,7 @@
         <v>50905</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>78</v>
       </c>
@@ -14186,7 +14190,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>80</v>
       </c>
@@ -14435,7 +14439,7 @@
         <v>7474</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>245</v>
       </c>
@@ -14684,7 +14688,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>246</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>244</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>243</v>
       </c>
@@ -15246,7 +15250,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>88</v>
       </c>
@@ -15495,7 +15499,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>89</v>
       </c>
@@ -15716,7 +15720,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>90</v>
       </c>
@@ -15933,7 +15937,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>254</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>95</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>96</v>
       </c>
@@ -16653,7 +16657,7 @@
         <v>19940</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>97</v>
       </c>
@@ -16802,7 +16806,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A70" s="23" t="s">
         <v>98</v>
       </c>
@@ -16975,7 +16979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>99</v>
       </c>
@@ -17139,7 +17143,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A72" s="23" t="s">
         <v>100</v>
       </c>
@@ -17388,7 +17392,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>102</v>
       </c>
@@ -17613,7 +17617,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>104</v>
       </c>
@@ -17862,7 +17866,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>242</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>106</v>
       </c>
@@ -18188,7 +18192,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
         <v>107</v>
       </c>
@@ -18377,7 +18381,7 @@
         <v>7490</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -18578,7 +18582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>110</v>
       </c>
@@ -18827,7 +18831,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>111</v>
       </c>
@@ -19076,7 +19080,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>112</v>
       </c>
@@ -19301,7 +19305,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>240</v>
       </c>
@@ -19550,7 +19554,7 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A83" s="23" t="s">
         <v>241</v>
       </c>
@@ -19703,7 +19707,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>117</v>
       </c>
@@ -19952,7 +19956,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
         <v>118</v>
       </c>
@@ -20201,7 +20205,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
         <v>119</v>
       </c>
@@ -20250,7 +20254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A87" s="23" t="s">
         <v>239</v>
       </c>
@@ -20499,7 +20503,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
         <v>121</v>
       </c>
@@ -20748,7 +20752,7 @@
         <v>9140</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="s">
         <v>122</v>
       </c>
@@ -20997,7 +21001,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="s">
         <v>125</v>
       </c>
@@ -21214,7 +21218,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>126</v>
       </c>
@@ -21331,7 +21335,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>129</v>
       </c>
@@ -21464,7 +21468,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>130</v>
       </c>
@@ -21713,7 +21717,7 @@
         <v>53418</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
         <v>131</v>
       </c>
@@ -21938,7 +21942,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
         <v>133</v>
       </c>
@@ -22075,7 +22079,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
         <v>199</v>
       </c>
@@ -22320,7 +22324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="s">
         <v>136</v>
       </c>
@@ -22569,7 +22573,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
         <v>138</v>
       </c>
@@ -22782,7 +22786,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>139</v>
       </c>
@@ -23031,7 +23035,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>140</v>
       </c>
@@ -23232,7 +23236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
         <v>143</v>
       </c>
@@ -23481,7 +23485,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>255</v>
       </c>
@@ -23730,7 +23734,7 @@
         <v>11786</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>146</v>
       </c>
@@ -23959,7 +23963,7 @@
         <v>6496</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>147</v>
       </c>
@@ -24208,7 +24212,7 @@
         <v>35700</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>148</v>
       </c>
@@ -24381,7 +24385,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>149</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>150</v>
       </c>
@@ -24855,7 +24859,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>151</v>
       </c>
@@ -25104,7 +25108,7 @@
         <v>72299</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>153</v>
       </c>
@@ -25353,7 +25357,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>155</v>
       </c>
@@ -25526,7 +25530,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>238</v>
       </c>
@@ -25775,7 +25779,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="s">
         <v>158</v>
       </c>
@@ -26024,7 +26028,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>160</v>
       </c>
@@ -26273,7 +26277,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
         <v>161</v>
       </c>
@@ -26522,7 +26526,7 @@
         <v>98200</v>
       </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>162</v>
       </c>
@@ -26723,7 +26727,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>163</v>
       </c>
@@ -26972,7 +26976,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
         <v>164</v>
       </c>
@@ -27145,7 +27149,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:62" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>173</v>
       </c>
@@ -27237,7 +27241,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A119" s="41" t="s">
         <v>198</v>
       </c>
@@ -27374,7 +27378,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>40</v>
       </c>
@@ -27622,7 +27626,7 @@
         <v>4479.8773739999997</v>
       </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A121" s="23" t="s">
         <v>134</v>
       </c>
@@ -27870,7 +27874,7 @@
         <v>4339.4743289999997</v>
       </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A122" s="41" t="s">
         <v>201</v>
       </c>
@@ -28003,7 +28007,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="s">
         <v>37</v>
       </c>
@@ -28252,7 +28256,7 @@
         <v>2536.2604030000002</v>
       </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="s">
         <v>114</v>
       </c>
@@ -28501,7 +28505,7 @@
         <v>1027.1019670000001</v>
       </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="s">
         <v>135</v>
       </c>
@@ -28750,7 +28754,7 @@
         <v>1291.315038</v>
       </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>103</v>
       </c>
@@ -28999,7 +29003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>132</v>
       </c>
@@ -29248,7 +29252,7 @@
         <v>1944.478398</v>
       </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>18</v>
       </c>
@@ -29497,7 +29501,7 @@
         <v>845.62887760000001</v>
       </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A129" s="41" t="s">
         <v>200</v>
       </c>
@@ -29630,7 +29634,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A130" s="52" t="s">
         <v>91</v>
       </c>
@@ -29879,7 +29883,7 @@
         <v>1192.5003508552199</v>
       </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="s">
         <v>154</v>
       </c>
@@ -30128,7 +30132,7 @@
         <v>9535</v>
       </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="s">
         <v>145</v>
       </c>
@@ -30377,7 +30381,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A133" s="23" t="s">
         <v>128</v>
       </c>
@@ -30626,7 +30630,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A134" s="52" t="s">
         <v>87</v>
       </c>
@@ -30875,7 +30879,7 @@
         <v>1362.3917530000001</v>
       </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A135" s="52" t="s">
         <v>49</v>
       </c>
@@ -31124,7 +31128,7 @@
         <v>446.70273312138499</v>
       </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="s">
         <v>152</v>
       </c>
@@ -31373,7 +31377,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="s">
         <v>13</v>
       </c>
@@ -31622,7 +31626,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>159</v>
       </c>
@@ -31871,7 +31875,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="s">
         <v>6</v>
       </c>
@@ -32120,7 +32124,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="s">
         <v>9</v>
       </c>
@@ -32369,7 +32373,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="s">
         <v>79</v>
       </c>
@@ -32618,7 +32622,7 @@
         <v>10810</v>
       </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A142" s="23" t="s">
         <v>101</v>
       </c>
@@ -32867,7 +32871,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="s">
         <v>56</v>
       </c>
@@ -33116,7 +33120,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="144" spans="1:62" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:62" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="53" t="s">
         <v>85</v>
       </c>
@@ -33365,7 +33369,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -33614,7 +33618,7 @@
         <v>6038.5783259999998</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -33862,7 +33866,7 @@
         <v>2731.3193460000002</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -34111,7 +34115,7 @@
         <v>2018.9390820000001</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>57</v>
       </c>
@@ -34360,7 +34364,7 @@
         <v>31745.521489999999</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>73</v>
       </c>
@@ -34609,7 +34613,7 @@
         <v>4004.5166020000001</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>59</v>
       </c>
@@ -34858,7 +34862,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>137</v>
       </c>
@@ -35107,7 +35111,7 @@
         <v>15867.593699999999</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>53</v>
       </c>
@@ -35356,7 +35360,7 @@
         <v>14613.249019999999</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>75</v>
       </c>
@@ -35605,7 +35609,7 @@
         <v>18936.286800000002</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>92</v>
       </c>
@@ -35854,7 +35858,7 @@
         <v>1100.7409279999999</v>
       </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>67</v>
       </c>
@@ -36103,7 +36107,7 @@
         <v>2524.2826829999999</v>
       </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>108</v>
       </c>
@@ -36352,7 +36356,7 @@
         <v>2382.5030620000002</v>
       </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -36601,7 +36605,7 @@
         <v>4487.9525119999998</v>
       </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -36850,7 +36854,7 @@
         <v>16491.54981</v>
       </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>124</v>
       </c>
@@ -37099,7 +37103,7 @@
         <v>5284.2365570000002</v>
       </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:62" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>127</v>
       </c>
@@ -37348,7 +37352,7 @@
         <v>8358.8283080000001</v>
       </c>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>52</v>
       </c>
@@ -37597,7 +37601,7 @@
         <v>1131.2437649999999</v>
       </c>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>141</v>
       </c>
@@ -37846,7 +37850,7 @@
         <v>3534.9354880000001</v>
       </c>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>156</v>
       </c>
@@ -38095,7 +38099,7 @@
         <v>11740.86551</v>
       </c>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>115</v>
       </c>
@@ -38344,7 +38348,7 @@
         <v>2051.9991730000002</v>
       </c>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>142</v>
       </c>
@@ -38593,7 +38597,7 @@
         <v>4799.3715609999999</v>
       </c>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -38842,7 +38846,7 @@
         <v>1869.7960909999999</v>
       </c>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -39091,7 +39095,7 @@
         <v>956.50789132685497</v>
       </c>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>68</v>
       </c>
@@ -39340,7 +39344,7 @@
         <v>227.74974444226001</v>
       </c>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A170" s="55" t="s">
         <v>256</v>
       </c>
@@ -39426,7 +39430,7 @@
         <v>34965.786999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:63" x14ac:dyDescent="0.3">
       <c r="AK171" s="23">
         <f>AK148-AK170</f>
         <v>-3439.875</v>
@@ -39532,7 +39536,7 @@
         <v>-3738.5755100000024</v>
       </c>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:63" x14ac:dyDescent="0.3">
       <c r="AK172" s="56">
         <f>AK171/AK148</f>
         <v>-0.10329334574500031</v>
@@ -39653,15 +39657,15 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -39669,7 +39673,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -39683,7 +39687,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>182</v>
       </c>
@@ -39695,7 +39699,7 @@
       </c>
       <c r="E4" s="60"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>189</v>
       </c>
@@ -39715,7 +39719,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>190</v>
       </c>
@@ -39726,7 +39730,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>191</v>
       </c>
@@ -39737,7 +39741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>197</v>
       </c>
@@ -39748,7 +39752,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="59" t="s">
         <v>261</v>
       </c>
@@ -39759,7 +39763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>187</v>
       </c>
@@ -39770,7 +39774,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>192</v>
@@ -39779,7 +39783,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>210</v>
@@ -39788,7 +39792,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>211</v>
@@ -39797,7 +39801,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>212</v>
@@ -39806,7 +39810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>216</v>
@@ -39815,7 +39819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" t="s">
         <v>217</v>
@@ -39824,7 +39828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>183</v>
       </c>
@@ -39838,7 +39842,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -39849,7 +39853,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>203</v>
       </c>
@@ -39857,7 +39861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
         <v>205</v>
       </c>
@@ -39865,7 +39869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
         <v>193</v>
       </c>
@@ -39873,7 +39877,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>194</v>
       </c>
@@ -39884,7 +39888,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>196</v>
       </c>
@@ -39895,10 +39899,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -39925,19 +39929,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40125,7 +40129,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -40313,7 +40317,7 @@
         <v>6038.5783259999998</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -40501,7 +40505,7 @@
         <v>2731.3193460000002</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -40690,7 +40694,7 @@
         <v>4479.8773739999997</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -40878,7 +40882,7 @@
         <v>2018.9390820000001</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -41066,7 +41070,7 @@
         <v>31745.521489999999</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -41254,7 +41258,7 @@
         <v>4004.5166020000001</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -41444,7 +41448,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -41632,7 +41636,7 @@
         <v>15867.593699999999</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -41820,7 +41824,7 @@
         <v>14613.249019999999</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -42008,7 +42012,7 @@
         <v>2536.2604030000002</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -42196,7 +42200,7 @@
         <v>18936.286800000002</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -42384,7 +42388,7 @@
         <v>1362.3917530000001</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -42572,7 +42576,7 @@
         <v>1100.7409279999999</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -42762,7 +42766,7 @@
         <v>2524.2826829999999</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -42950,7 +42954,7 @@
         <v>2382.5030620000002</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -43138,7 +43142,7 @@
         <v>4487.9525119999998</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -43326,7 +43330,7 @@
         <v>16491.54981</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -43514,7 +43518,7 @@
         <v>5284.2365570000002</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -43702,7 +43706,7 @@
         <v>8358.8283080000001</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -43890,7 +43894,7 @@
         <v>1291.315038</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -44079,7 +44083,7 @@
         <v>4339.4743289999997</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -44267,7 +44271,7 @@
         <v>1131.2437649999999</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -44455,7 +44459,7 @@
         <v>3534.9354880000001</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -44643,7 +44647,7 @@
         <v>11740.86551</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -44831,7 +44835,7 @@
         <v>2051.9991730000002</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -45019,7 +45023,7 @@
         <v>4799.3715609999999</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -45207,7 +45211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -45395,7 +45399,7 @@
         <v>1027.1019670000001</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -45583,7 +45587,7 @@
         <v>1869.7960909999999</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -45771,7 +45775,7 @@
         <v>1944.478398</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -45959,7 +45963,7 @@
         <v>845.62887760000001</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -46168,7 +46172,7 @@
       <c r="CD33" s="5"/>
       <c r="CE33" s="5"/>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -46356,7 +46360,7 @@
         <v>956.50789132685497</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -46544,7 +46548,7 @@
         <v>1192.5003508552199</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -46732,7 +46736,7 @@
         <v>227.74974444226001</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -46920,7 +46924,7 @@
         <v>987.09935117005</v>
       </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW38" s="6"/>
       <c r="AX38" s="6"/>
       <c r="AY38" s="6"/>
@@ -46936,7 +46940,7 @@
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW39" s="9"/>
       <c r="AX39" s="9"/>
       <c r="AY39" s="9"/>
@@ -46952,7 +46956,7 @@
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW40" s="9"/>
       <c r="AX40" s="9"/>
       <c r="AY40" s="9"/>
@@ -46968,7 +46972,7 @@
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW41" s="9"/>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
@@ -46984,7 +46988,7 @@
       <c r="BI41" s="8"/>
       <c r="BJ41" s="8"/>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW42" s="9"/>
       <c r="AX42" s="9"/>
       <c r="AY42" s="9"/>
@@ -47000,7 +47004,7 @@
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW43" s="9"/>
       <c r="AX43" s="9"/>
       <c r="AY43" s="9"/>
@@ -47016,7 +47020,7 @@
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW44" s="9"/>
       <c r="AX44" s="9"/>
       <c r="AY44" s="9"/>
@@ -47032,7 +47036,7 @@
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW45" s="9"/>
       <c r="AX45" s="9"/>
       <c r="AY45" s="9"/>
@@ -47048,7 +47052,7 @@
       <c r="BI45" s="8"/>
       <c r="BJ45" s="8"/>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW46" s="9"/>
       <c r="AX46" s="9"/>
       <c r="AY46" s="9"/>
@@ -47064,7 +47068,7 @@
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW47" s="9"/>
       <c r="AX47" s="9"/>
       <c r="AY47" s="9"/>
@@ -47080,7 +47084,7 @@
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AW48" s="9"/>
       <c r="AX48" s="9"/>
       <c r="AY48" s="9"/>
@@ -47096,7 +47100,7 @@
       <c r="BI48" s="8"/>
       <c r="BJ48" s="8"/>
     </row>
-    <row r="49" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW49" s="9"/>
       <c r="AX49" s="9"/>
       <c r="AY49" s="9"/>
@@ -47112,7 +47116,7 @@
       <c r="BI49" s="8"/>
       <c r="BJ49" s="8"/>
     </row>
-    <row r="50" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW50" s="9"/>
       <c r="AX50" s="9"/>
       <c r="AY50" s="9"/>
@@ -47128,7 +47132,7 @@
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
     </row>
-    <row r="51" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW51" s="9"/>
       <c r="AX51" s="9"/>
       <c r="AY51" s="9"/>
@@ -47144,7 +47148,7 @@
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
     </row>
-    <row r="52" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW52" s="9"/>
       <c r="AX52" s="9"/>
       <c r="AY52" s="9"/>
@@ -47160,7 +47164,7 @@
       <c r="BI52" s="10"/>
       <c r="BJ52" s="8"/>
     </row>
-    <row r="53" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW53" s="9"/>
       <c r="AX53" s="9"/>
       <c r="AY53" s="9"/>
@@ -47176,7 +47180,7 @@
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
     </row>
-    <row r="54" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW54" s="9"/>
       <c r="AX54" s="9"/>
       <c r="AY54" s="9"/>
@@ -47192,7 +47196,7 @@
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
     </row>
-    <row r="55" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW55" s="9"/>
       <c r="AX55" s="9"/>
       <c r="AY55" s="9"/>
@@ -47208,7 +47212,7 @@
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
     </row>
-    <row r="56" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW56" s="9"/>
       <c r="AX56" s="9"/>
       <c r="AY56" s="9"/>
@@ -47224,7 +47228,7 @@
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
     </row>
-    <row r="57" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW57" s="9"/>
       <c r="AX57" s="9"/>
       <c r="AY57" s="9"/>
@@ -47240,7 +47244,7 @@
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
     </row>
-    <row r="58" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9"/>
@@ -47256,7 +47260,7 @@
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
     </row>
-    <row r="59" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW59" s="9"/>
       <c r="AX59" s="9"/>
       <c r="AY59" s="9"/>
@@ -47272,7 +47276,7 @@
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
     </row>
-    <row r="60" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW60" s="9"/>
       <c r="AX60" s="9"/>
       <c r="AY60" s="9"/>
@@ -47288,7 +47292,7 @@
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
     </row>
-    <row r="61" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW61" s="9"/>
       <c r="AX61" s="9"/>
       <c r="AY61" s="9"/>
@@ -47304,7 +47308,7 @@
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
     </row>
-    <row r="62" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW62" s="9"/>
       <c r="AX62" s="9"/>
       <c r="AY62" s="9"/>
@@ -47320,7 +47324,7 @@
       <c r="BI62" s="8"/>
       <c r="BJ62" s="8"/>
     </row>
-    <row r="63" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW63" s="9"/>
       <c r="AX63" s="9"/>
       <c r="AY63" s="9"/>
@@ -47336,7 +47340,7 @@
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
     </row>
-    <row r="64" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW64" s="9"/>
       <c r="AX64" s="9"/>
       <c r="AY64" s="9"/>
@@ -47352,7 +47356,7 @@
       <c r="BI64" s="8"/>
       <c r="BJ64" s="8"/>
     </row>
-    <row r="65" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW65" s="9"/>
       <c r="AX65" s="9"/>
       <c r="AY65" s="9"/>
@@ -47368,7 +47372,7 @@
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
     </row>
-    <row r="66" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW66" s="9"/>
       <c r="AX66" s="9"/>
       <c r="AY66" s="9"/>
@@ -47384,7 +47388,7 @@
       <c r="BI66" s="8"/>
       <c r="BJ66" s="8"/>
     </row>
-    <row r="67" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW67" s="9"/>
       <c r="AX67" s="9"/>
       <c r="AY67" s="9"/>
@@ -47400,7 +47404,7 @@
       <c r="BI67" s="8"/>
       <c r="BJ67" s="8"/>
     </row>
-    <row r="68" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW68" s="9"/>
       <c r="AX68" s="9"/>
       <c r="AY68" s="9"/>
@@ -47416,7 +47420,7 @@
       <c r="BI68" s="8"/>
       <c r="BJ68" s="8"/>
     </row>
-    <row r="69" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW69" s="9"/>
       <c r="AX69" s="9"/>
       <c r="AY69" s="9"/>
@@ -47432,7 +47436,7 @@
       <c r="BI69" s="8"/>
       <c r="BJ69" s="8"/>
     </row>
-    <row r="70" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW70" s="9"/>
       <c r="AX70" s="9"/>
       <c r="AY70" s="9"/>
@@ -47448,7 +47452,7 @@
       <c r="BI70" s="8"/>
       <c r="BJ70" s="8"/>
     </row>
-    <row r="71" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW71" s="9"/>
       <c r="AX71" s="9"/>
       <c r="AY71" s="9"/>
@@ -47464,7 +47468,7 @@
       <c r="BI71" s="8"/>
       <c r="BJ71" s="8"/>
     </row>
-    <row r="72" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW72" s="9"/>
       <c r="AX72" s="9"/>
       <c r="AY72" s="9"/>
@@ -47480,7 +47484,7 @@
       <c r="BI72" s="8"/>
       <c r="BJ72" s="8"/>
     </row>
-    <row r="73" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW73" s="9"/>
       <c r="AX73" s="9"/>
       <c r="AY73" s="9"/>
@@ -47496,7 +47500,7 @@
       <c r="BI73" s="8"/>
       <c r="BJ73" s="8"/>
     </row>
-    <row r="74" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW74" s="9"/>
       <c r="AX74" s="9"/>
       <c r="AY74" s="9"/>
@@ -47512,7 +47516,7 @@
       <c r="BI74" s="8"/>
       <c r="BJ74" s="8"/>
     </row>
-    <row r="75" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW75" s="9"/>
       <c r="AX75" s="9"/>
       <c r="AY75" s="9"/>
@@ -47528,7 +47532,7 @@
       <c r="BI75" s="8"/>
       <c r="BJ75" s="8"/>
     </row>
-    <row r="76" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW76" s="9"/>
       <c r="AX76" s="9"/>
       <c r="AY76" s="9"/>
@@ -47544,7 +47548,7 @@
       <c r="BI76" s="8"/>
       <c r="BJ76" s="8"/>
     </row>
-    <row r="77" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW77" s="9"/>
       <c r="AX77" s="9"/>
       <c r="AY77" s="9"/>
@@ -47560,7 +47564,7 @@
       <c r="BI77" s="8"/>
       <c r="BJ77" s="8"/>
     </row>
-    <row r="78" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW78" s="9"/>
       <c r="AX78" s="9"/>
       <c r="AY78" s="9"/>
@@ -47576,7 +47580,7 @@
       <c r="BI78" s="8"/>
       <c r="BJ78" s="8"/>
     </row>
-    <row r="79" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW79" s="9"/>
       <c r="AX79" s="9"/>
       <c r="AY79" s="9"/>
@@ -47592,7 +47596,7 @@
       <c r="BI79" s="8"/>
       <c r="BJ79" s="8"/>
     </row>
-    <row r="80" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW80" s="9"/>
       <c r="AX80" s="9"/>
       <c r="AY80" s="9"/>
@@ -47608,7 +47612,7 @@
       <c r="BI80" s="8"/>
       <c r="BJ80" s="8"/>
     </row>
-    <row r="81" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW81" s="11"/>
       <c r="AX81" s="11"/>
       <c r="AY81" s="11"/>
@@ -47624,7 +47628,7 @@
       <c r="BI81" s="8"/>
       <c r="BJ81" s="8"/>
     </row>
-    <row r="82" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW82" s="9"/>
       <c r="AX82" s="9"/>
       <c r="AY82" s="9"/>
@@ -47640,7 +47644,7 @@
       <c r="BI82" s="8"/>
       <c r="BJ82" s="8"/>
     </row>
-    <row r="83" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW83" s="9"/>
       <c r="AX83" s="9"/>
       <c r="AY83" s="9"/>
@@ -47656,7 +47660,7 @@
       <c r="BI83" s="8"/>
       <c r="BJ83" s="8"/>
     </row>
-    <row r="84" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW84" s="9"/>
       <c r="AX84" s="9"/>
       <c r="AY84" s="9"/>
@@ -47672,7 +47676,7 @@
       <c r="BI84" s="8"/>
       <c r="BJ84" s="8"/>
     </row>
-    <row r="85" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW85" s="9"/>
       <c r="AX85" s="9"/>
       <c r="AY85" s="9"/>
@@ -47688,7 +47692,7 @@
       <c r="BI85" s="8"/>
       <c r="BJ85" s="8"/>
     </row>
-    <row r="86" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW86" s="9"/>
       <c r="AX86" s="9"/>
       <c r="AY86" s="9"/>
@@ -47704,7 +47708,7 @@
       <c r="BI86" s="8"/>
       <c r="BJ86" s="8"/>
     </row>
-    <row r="87" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW87" s="9"/>
       <c r="AX87" s="9"/>
       <c r="AY87" s="9"/>
@@ -47720,7 +47724,7 @@
       <c r="BI87" s="8"/>
       <c r="BJ87" s="8"/>
     </row>
-    <row r="88" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW88" s="9"/>
       <c r="AX88" s="9"/>
       <c r="AY88" s="9"/>
@@ -47736,7 +47740,7 @@
       <c r="BI88" s="12"/>
       <c r="BJ88" s="12"/>
     </row>
-    <row r="89" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW89" s="9"/>
       <c r="AX89" s="9"/>
       <c r="AY89" s="9"/>
@@ -47752,7 +47756,7 @@
       <c r="BI89" s="8"/>
       <c r="BJ89" s="8"/>
     </row>
-    <row r="90" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW90" s="9"/>
       <c r="AX90" s="9"/>
       <c r="AY90" s="9"/>
@@ -47768,7 +47772,7 @@
       <c r="BI90" s="8"/>
       <c r="BJ90" s="8"/>
     </row>
-    <row r="91" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW91" s="9"/>
       <c r="AX91" s="9"/>
       <c r="AY91" s="9"/>
@@ -47784,7 +47788,7 @@
       <c r="BI91" s="8"/>
       <c r="BJ91" s="8"/>
     </row>
-    <row r="92" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW92" s="9"/>
       <c r="AX92" s="9"/>
       <c r="AY92" s="9"/>
@@ -47800,7 +47804,7 @@
       <c r="BI92" s="8"/>
       <c r="BJ92" s="8"/>
     </row>
-    <row r="93" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW93" s="9"/>
       <c r="AX93" s="9"/>
       <c r="AY93" s="9"/>
@@ -47816,7 +47820,7 @@
       <c r="BI93" s="8"/>
       <c r="BJ93" s="8"/>
     </row>
-    <row r="94" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW94" s="9"/>
       <c r="AX94" s="9"/>
       <c r="AY94" s="9"/>
@@ -47832,7 +47836,7 @@
       <c r="BI94" s="8"/>
       <c r="BJ94" s="8"/>
     </row>
-    <row r="95" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW95" s="9"/>
       <c r="AX95" s="9"/>
       <c r="AY95" s="9"/>
@@ -47848,7 +47852,7 @@
       <c r="BI95" s="8"/>
       <c r="BJ95" s="8"/>
     </row>
-    <row r="96" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW96" s="9"/>
       <c r="AX96" s="9"/>
       <c r="AY96" s="9"/>
@@ -47864,7 +47868,7 @@
       <c r="BI96" s="8"/>
       <c r="BJ96" s="8"/>
     </row>
-    <row r="97" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW97" s="9"/>
       <c r="AX97" s="9"/>
       <c r="AY97" s="9"/>
@@ -47880,7 +47884,7 @@
       <c r="BI97" s="8"/>
       <c r="BJ97" s="8"/>
     </row>
-    <row r="98" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW98" s="9"/>
       <c r="AX98" s="9"/>
       <c r="AY98" s="9"/>
@@ -47896,7 +47900,7 @@
       <c r="BI98" s="8"/>
       <c r="BJ98" s="8"/>
     </row>
-    <row r="99" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW99" s="9"/>
       <c r="AX99" s="9"/>
       <c r="AY99" s="9"/>
@@ -47912,7 +47916,7 @@
       <c r="BI99" s="8"/>
       <c r="BJ99" s="8"/>
     </row>
-    <row r="100" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW100" s="9"/>
       <c r="AX100" s="9"/>
       <c r="AY100" s="9"/>
@@ -47928,7 +47932,7 @@
       <c r="BI100" s="8"/>
       <c r="BJ100" s="8"/>
     </row>
-    <row r="101" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW101" s="9"/>
       <c r="AX101" s="9"/>
       <c r="AY101" s="9"/>
@@ -47944,7 +47948,7 @@
       <c r="BI101" s="8"/>
       <c r="BJ101" s="8"/>
     </row>
-    <row r="102" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW102" s="9"/>
       <c r="AX102" s="9"/>
       <c r="AY102" s="9"/>
@@ -47960,7 +47964,7 @@
       <c r="BI102" s="8"/>
       <c r="BJ102" s="8"/>
     </row>
-    <row r="103" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW103" s="9"/>
       <c r="AX103" s="9"/>
       <c r="AY103" s="9"/>
@@ -47976,7 +47980,7 @@
       <c r="BI103" s="8"/>
       <c r="BJ103" s="8"/>
     </row>
-    <row r="104" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW104" s="9"/>
       <c r="AX104" s="9"/>
       <c r="AY104" s="9"/>
@@ -47992,7 +47996,7 @@
       <c r="BI104" s="8"/>
       <c r="BJ104" s="8"/>
     </row>
-    <row r="105" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW105" s="9"/>
       <c r="AX105" s="9"/>
       <c r="AY105" s="9"/>
@@ -48008,7 +48012,7 @@
       <c r="BI105" s="8"/>
       <c r="BJ105" s="8"/>
     </row>
-    <row r="106" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW106" s="9"/>
       <c r="AX106" s="9"/>
       <c r="AY106" s="9"/>
@@ -48024,7 +48028,7 @@
       <c r="BI106" s="8"/>
       <c r="BJ106" s="8"/>
     </row>
-    <row r="107" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW107" s="9"/>
       <c r="AX107" s="9"/>
       <c r="AY107" s="9"/>
@@ -48040,7 +48044,7 @@
       <c r="BI107" s="8"/>
       <c r="BJ107" s="8"/>
     </row>
-    <row r="108" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW108" s="9"/>
       <c r="AX108" s="9"/>
       <c r="AY108" s="9"/>
@@ -48056,7 +48060,7 @@
       <c r="BI108" s="8"/>
       <c r="BJ108" s="8"/>
     </row>
-    <row r="109" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW109" s="9"/>
       <c r="AX109" s="9"/>
       <c r="AY109" s="9"/>
@@ -48072,7 +48076,7 @@
       <c r="BI109" s="8"/>
       <c r="BJ109" s="8"/>
     </row>
-    <row r="110" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW110" s="9"/>
       <c r="AX110" s="9"/>
       <c r="AY110" s="9"/>
@@ -48088,7 +48092,7 @@
       <c r="BI110" s="8"/>
       <c r="BJ110" s="8"/>
     </row>
-    <row r="111" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW111" s="9"/>
       <c r="AX111" s="9"/>
       <c r="AY111" s="9"/>
@@ -48104,7 +48108,7 @@
       <c r="BI111" s="8"/>
       <c r="BJ111" s="8"/>
     </row>
-    <row r="112" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW112" s="9"/>
       <c r="AX112" s="9"/>
       <c r="AY112" s="9"/>
@@ -48120,7 +48124,7 @@
       <c r="BI112" s="8"/>
       <c r="BJ112" s="8"/>
     </row>
-    <row r="113" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW113" s="9"/>
       <c r="AX113" s="9"/>
       <c r="AY113" s="9"/>
@@ -48136,7 +48140,7 @@
       <c r="BI113" s="8"/>
       <c r="BJ113" s="8"/>
     </row>
-    <row r="114" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW114" s="9"/>
       <c r="AX114" s="9"/>
       <c r="AY114" s="9"/>
@@ -48152,7 +48156,7 @@
       <c r="BI114" s="8"/>
       <c r="BJ114" s="8"/>
     </row>
-    <row r="115" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW115" s="9"/>
       <c r="AX115" s="9"/>
       <c r="AY115" s="9"/>
@@ -48168,7 +48172,7 @@
       <c r="BI115" s="8"/>
       <c r="BJ115" s="8"/>
     </row>
-    <row r="116" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW116" s="9"/>
       <c r="AX116" s="9"/>
       <c r="AY116" s="9"/>
@@ -48184,7 +48188,7 @@
       <c r="BI116" s="8"/>
       <c r="BJ116" s="8"/>
     </row>
-    <row r="117" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW117" s="9"/>
       <c r="AX117" s="9"/>
       <c r="AY117" s="9"/>
@@ -48200,7 +48204,7 @@
       <c r="BI117" s="8"/>
       <c r="BJ117" s="8"/>
     </row>
-    <row r="118" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="118" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW118" s="9"/>
       <c r="AX118" s="9"/>
       <c r="AY118" s="9"/>
@@ -48216,7 +48220,7 @@
       <c r="BI118" s="8"/>
       <c r="BJ118" s="8"/>
     </row>
-    <row r="119" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW119" s="13"/>
       <c r="AX119" s="13"/>
       <c r="AY119" s="13"/>
@@ -48232,7 +48236,7 @@
       <c r="BI119" s="8"/>
       <c r="BJ119" s="8"/>
     </row>
-    <row r="120" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW120" s="9"/>
       <c r="AX120" s="9"/>
       <c r="AY120" s="9"/>
@@ -48248,7 +48252,7 @@
       <c r="BI120" s="8"/>
       <c r="BJ120" s="8"/>
     </row>
-    <row r="121" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW121" s="9"/>
       <c r="AX121" s="9"/>
       <c r="AY121" s="9"/>
@@ -48264,7 +48268,7 @@
       <c r="BI121" s="8"/>
       <c r="BJ121" s="8"/>
     </row>
-    <row r="122" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW122" s="9"/>
       <c r="AX122" s="9"/>
       <c r="AY122" s="9"/>
@@ -48280,7 +48284,7 @@
       <c r="BI122" s="8"/>
       <c r="BJ122" s="8"/>
     </row>
-    <row r="123" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW123" s="9"/>
       <c r="AX123" s="9"/>
       <c r="AY123" s="9"/>
@@ -48296,7 +48300,7 @@
       <c r="BI123" s="8"/>
       <c r="BJ123" s="8"/>
     </row>
-    <row r="124" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW124" s="9"/>
       <c r="AX124" s="9"/>
       <c r="AY124" s="9"/>
@@ -48312,7 +48316,7 @@
       <c r="BI124" s="8"/>
       <c r="BJ124" s="8"/>
     </row>
-    <row r="125" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW125" s="9"/>
       <c r="AX125" s="9"/>
       <c r="AY125" s="9"/>
@@ -48328,7 +48332,7 @@
       <c r="BI125" s="8"/>
       <c r="BJ125" s="8"/>
     </row>
-    <row r="126" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW126" s="9"/>
       <c r="AX126" s="9"/>
       <c r="AY126" s="9"/>
@@ -48344,7 +48348,7 @@
       <c r="BI126" s="8"/>
       <c r="BJ126" s="8"/>
     </row>
-    <row r="127" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW127" s="9"/>
       <c r="AX127" s="9"/>
       <c r="AY127" s="9"/>
@@ -48360,7 +48364,7 @@
       <c r="BI127" s="8"/>
       <c r="BJ127" s="8"/>
     </row>
-    <row r="128" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW128" s="9"/>
       <c r="AX128" s="9"/>
       <c r="AY128" s="9"/>
@@ -48376,7 +48380,7 @@
       <c r="BI128" s="8"/>
       <c r="BJ128" s="8"/>
     </row>
-    <row r="129" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW129" s="9"/>
       <c r="AX129" s="9"/>
       <c r="AY129" s="9"/>
@@ -48392,7 +48396,7 @@
       <c r="BI129" s="8"/>
       <c r="BJ129" s="8"/>
     </row>
-    <row r="130" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW130" s="9"/>
       <c r="AX130" s="9"/>
       <c r="AY130" s="9"/>
@@ -48408,7 +48412,7 @@
       <c r="BI130" s="8"/>
       <c r="BJ130" s="8"/>
     </row>
-    <row r="131" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW131" s="9"/>
       <c r="AX131" s="9"/>
       <c r="AY131" s="9"/>
@@ -48424,7 +48428,7 @@
       <c r="BI131" s="8"/>
       <c r="BJ131" s="8"/>
     </row>
-    <row r="132" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW132" s="9"/>
       <c r="AX132" s="9"/>
       <c r="AY132" s="9"/>
@@ -48440,7 +48444,7 @@
       <c r="BI132" s="8"/>
       <c r="BJ132" s="8"/>
     </row>
-    <row r="133" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW133" s="9"/>
       <c r="AX133" s="9"/>
       <c r="AY133" s="9"/>
@@ -48456,7 +48460,7 @@
       <c r="BI133" s="8"/>
       <c r="BJ133" s="8"/>
     </row>
-    <row r="134" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW134" s="9"/>
       <c r="AX134" s="9"/>
       <c r="AY134" s="9"/>
@@ -48472,7 +48476,7 @@
       <c r="BI134" s="8"/>
       <c r="BJ134" s="8"/>
     </row>
-    <row r="135" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW135" s="9"/>
       <c r="AX135" s="9"/>
       <c r="AY135" s="9"/>
@@ -48488,7 +48492,7 @@
       <c r="BI135" s="8"/>
       <c r="BJ135" s="8"/>
     </row>
-    <row r="136" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW136" s="9"/>
       <c r="AX136" s="9"/>
       <c r="AY136" s="9"/>
@@ -48504,7 +48508,7 @@
       <c r="BI136" s="8"/>
       <c r="BJ136" s="8"/>
     </row>
-    <row r="137" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW137" s="9"/>
       <c r="AX137" s="9"/>
       <c r="AY137" s="9"/>
@@ -48520,7 +48524,7 @@
       <c r="BI137" s="8"/>
       <c r="BJ137" s="8"/>
     </row>
-    <row r="138" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW138" s="9"/>
       <c r="AX138" s="9"/>
       <c r="AY138" s="9"/>
@@ -48536,7 +48540,7 @@
       <c r="BI138" s="8"/>
       <c r="BJ138" s="8"/>
     </row>
-    <row r="139" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW139" s="9"/>
       <c r="AX139" s="9"/>
       <c r="AY139" s="9"/>
@@ -48552,7 +48556,7 @@
       <c r="BI139" s="8"/>
       <c r="BJ139" s="8"/>
     </row>
-    <row r="140" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW140" s="9"/>
       <c r="AX140" s="9"/>
       <c r="AY140" s="9"/>
@@ -48568,7 +48572,7 @@
       <c r="BI140" s="8"/>
       <c r="BJ140" s="8"/>
     </row>
-    <row r="141" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW141" s="9"/>
       <c r="AX141" s="9"/>
       <c r="AY141" s="9"/>
@@ -48584,7 +48588,7 @@
       <c r="BI141" s="8"/>
       <c r="BJ141" s="8"/>
     </row>
-    <row r="142" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW142" s="9"/>
       <c r="AX142" s="9"/>
       <c r="AY142" s="9"/>
@@ -48600,7 +48604,7 @@
       <c r="BI142" s="8"/>
       <c r="BJ142" s="8"/>
     </row>
-    <row r="143" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW143" s="9"/>
       <c r="AX143" s="9"/>
       <c r="AY143" s="9"/>
@@ -48616,7 +48620,7 @@
       <c r="BI143" s="8"/>
       <c r="BJ143" s="8"/>
     </row>
-    <row r="144" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="144" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW144" s="9"/>
       <c r="AX144" s="9"/>
       <c r="AY144" s="9"/>
@@ -48632,7 +48636,7 @@
       <c r="BI144" s="8"/>
       <c r="BJ144" s="8"/>
     </row>
-    <row r="145" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="145" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW145" s="9"/>
       <c r="AX145" s="9"/>
       <c r="AY145" s="9"/>
@@ -48648,7 +48652,7 @@
       <c r="BI145" s="8"/>
       <c r="BJ145" s="8"/>
     </row>
-    <row r="146" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="146" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW146" s="9"/>
       <c r="AX146" s="9"/>
       <c r="AY146" s="9"/>
@@ -48664,7 +48668,7 @@
       <c r="BI146" s="8"/>
       <c r="BJ146" s="8"/>
     </row>
-    <row r="147" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="147" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW147" s="9"/>
       <c r="AX147" s="9"/>
       <c r="AY147" s="9"/>
@@ -48680,7 +48684,7 @@
       <c r="BI147" s="8"/>
       <c r="BJ147" s="8"/>
     </row>
-    <row r="148" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="148" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW148" s="9"/>
       <c r="AX148" s="9"/>
       <c r="AY148" s="9"/>
@@ -48696,7 +48700,7 @@
       <c r="BI148" s="8"/>
       <c r="BJ148" s="8"/>
     </row>
-    <row r="149" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="149" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW149" s="9"/>
       <c r="AX149" s="9"/>
       <c r="AY149" s="9"/>
@@ -48712,7 +48716,7 @@
       <c r="BI149" s="8"/>
       <c r="BJ149" s="8"/>
     </row>
-    <row r="150" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="150" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW150" s="9"/>
       <c r="AX150" s="9"/>
       <c r="AY150" s="9"/>
@@ -48728,7 +48732,7 @@
       <c r="BI150" s="8"/>
       <c r="BJ150" s="8"/>
     </row>
-    <row r="151" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="151" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW151" s="9"/>
       <c r="AX151" s="9"/>
       <c r="AY151" s="9"/>
@@ -48744,7 +48748,7 @@
       <c r="BI151" s="8"/>
       <c r="BJ151" s="8"/>
     </row>
-    <row r="152" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="152" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW152" s="9"/>
       <c r="AX152" s="9"/>
       <c r="AY152" s="9"/>
@@ -48760,7 +48764,7 @@
       <c r="BI152" s="8"/>
       <c r="BJ152" s="8"/>
     </row>
-    <row r="153" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="153" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW153" s="9"/>
       <c r="AX153" s="9"/>
       <c r="AY153" s="9"/>
@@ -48776,7 +48780,7 @@
       <c r="BI153" s="8"/>
       <c r="BJ153" s="8"/>
     </row>
-    <row r="154" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="154" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW154" s="9"/>
       <c r="AX154" s="9"/>
       <c r="AY154" s="9"/>
@@ -48792,7 +48796,7 @@
       <c r="BI154" s="8"/>
       <c r="BJ154" s="8"/>
     </row>
-    <row r="155" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="155" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW155" s="9"/>
       <c r="AX155" s="9"/>
       <c r="AY155" s="9"/>
@@ -48808,7 +48812,7 @@
       <c r="BI155" s="8"/>
       <c r="BJ155" s="8"/>
     </row>
-    <row r="156" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="156" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW156" s="9"/>
       <c r="AX156" s="9"/>
       <c r="AY156" s="9"/>
@@ -48824,7 +48828,7 @@
       <c r="BI156" s="8"/>
       <c r="BJ156" s="8"/>
     </row>
-    <row r="157" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="157" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW157" s="9"/>
       <c r="AX157" s="9"/>
       <c r="AY157" s="9"/>
@@ -48840,7 +48844,7 @@
       <c r="BI157" s="8"/>
       <c r="BJ157" s="8"/>
     </row>
-    <row r="158" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="158" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW158" s="9"/>
       <c r="AX158" s="9"/>
       <c r="AY158" s="9"/>
@@ -48856,7 +48860,7 @@
       <c r="BI158" s="8"/>
       <c r="BJ158" s="8"/>
     </row>
-    <row r="159" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="159" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW159" s="9"/>
       <c r="AX159" s="9"/>
       <c r="AY159" s="9"/>
@@ -48872,7 +48876,7 @@
       <c r="BI159" s="8"/>
       <c r="BJ159" s="8"/>
     </row>
-    <row r="160" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="160" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW160" s="9"/>
       <c r="AX160" s="9"/>
       <c r="AY160" s="9"/>
@@ -48888,7 +48892,7 @@
       <c r="BI160" s="8"/>
       <c r="BJ160" s="8"/>
     </row>
-    <row r="161" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="161" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW161" s="9"/>
       <c r="AX161" s="9"/>
       <c r="AY161" s="9"/>
@@ -48904,7 +48908,7 @@
       <c r="BI161" s="8"/>
       <c r="BJ161" s="8"/>
     </row>
-    <row r="162" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="162" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW162" s="9"/>
       <c r="AX162" s="9"/>
       <c r="AY162" s="9"/>
@@ -48920,7 +48924,7 @@
       <c r="BI162" s="8"/>
       <c r="BJ162" s="8"/>
     </row>
-    <row r="163" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="163" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW163" s="9"/>
       <c r="AX163" s="9"/>
       <c r="AY163" s="9"/>
@@ -48936,7 +48940,7 @@
       <c r="BI163" s="8"/>
       <c r="BJ163" s="8"/>
     </row>
-    <row r="164" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="164" spans="49:62" x14ac:dyDescent="0.35">
       <c r="AW164" s="11"/>
       <c r="AX164" s="11"/>
       <c r="AY164" s="11"/>
@@ -48952,7 +48956,7 @@
       <c r="BI164" s="15"/>
       <c r="BJ164" s="15"/>
     </row>
-    <row r="165" spans="49:62" x14ac:dyDescent="0.25">
+    <row r="165" spans="49:62" x14ac:dyDescent="0.35">
       <c r="BF165" s="16"/>
       <c r="BG165" s="16"/>
       <c r="BH165" s="16"/>
@@ -48976,17 +48980,17 @@
       <selection pane="bottomRight" activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="23"/>
-    <col min="4" max="4" width="12.28515625" style="23" customWidth="1"/>
-    <col min="5" max="17" width="11.42578125" style="23"/>
-    <col min="18" max="18" width="12.28515625" style="23" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="1" width="24.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="23"/>
+    <col min="4" max="4" width="12.26953125" style="23" customWidth="1"/>
+    <col min="5" max="17" width="11.453125" style="23"/>
+    <col min="18" max="18" width="12.26953125" style="23" customWidth="1"/>
+    <col min="19" max="16384" width="11.453125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -49174,7 +49178,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -49362,7 +49366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -49550,7 +49554,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -49738,7 +49742,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
@@ -49926,7 +49930,7 @@
         <v>9871</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -50114,7 +50118,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
@@ -50212,7 +50216,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -50352,7 +50356,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
@@ -50480,7 +50484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
@@ -50608,7 +50612,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>16</v>
       </c>
@@ -50703,7 +50707,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>17</v>
       </c>
@@ -50891,7 +50895,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
@@ -50928,7 +50932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
@@ -51116,7 +51120,7 @@
         <v>61052</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
@@ -51196,7 +51200,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>24</v>
       </c>
@@ -51279,7 +51283,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>25</v>
       </c>
@@ -51467,7 +51471,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>26</v>
       </c>
@@ -51504,7 +51508,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
@@ -51569,7 +51573,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>28</v>
       </c>
@@ -51712,7 +51716,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>29</v>
       </c>
@@ -51900,7 +51904,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
@@ -51937,7 +51941,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
@@ -52125,7 +52129,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>32</v>
       </c>
@@ -52313,7 +52317,7 @@
         <v>2380000</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
@@ -52522,7 +52526,7 @@
       <c r="CD25" s="32"/>
       <c r="CE25" s="32"/>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
@@ -52620,7 +52624,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>35</v>
       </c>
@@ -52739,7 +52743,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
@@ -52927,7 +52931,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>38</v>
       </c>
@@ -53085,7 +53089,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>41</v>
       </c>
@@ -53183,7 +53187,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>43</v>
       </c>
@@ -53221,7 +53225,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>44</v>
       </c>
@@ -53409,7 +53413,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>45</v>
       </c>
@@ -53597,7 +53601,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>46</v>
       </c>
@@ -53755,7 +53759,7 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>47</v>
       </c>
@@ -53943,7 +53947,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>48</v>
       </c>
@@ -54032,7 +54036,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>50</v>
       </c>
@@ -54220,7 +54224,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>51</v>
       </c>
@@ -54402,7 +54406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>54</v>
       </c>
@@ -54485,7 +54489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>55</v>
       </c>
@@ -54625,7 +54629,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>58</v>
       </c>
@@ -54789,7 +54793,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>60</v>
       </c>
@@ -54917,7 +54921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>61</v>
       </c>
@@ -55105,7 +55109,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>62</v>
       </c>
@@ -55181,7 +55185,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>63</v>
       </c>
@@ -55218,7 +55222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>64</v>
       </c>
@@ -55385,7 +55389,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>65</v>
       </c>
@@ -55573,7 +55577,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>66</v>
       </c>
@@ -55761,7 +55765,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>69</v>
       </c>
@@ -55949,7 +55953,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>70</v>
       </c>
@@ -56137,7 +56141,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>71</v>
       </c>
@@ -56325,7 +56329,7 @@
         <v>68300</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>72</v>
       </c>
@@ -56513,7 +56517,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>74</v>
       </c>
@@ -56701,7 +56705,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>76</v>
       </c>
@@ -56889,7 +56893,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>77</v>
       </c>
@@ -57077,7 +57081,7 @@
         <v>50905</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>78</v>
       </c>
@@ -57262,7 +57266,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>80</v>
       </c>
@@ -57450,7 +57454,7 @@
         <v>7474</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>81</v>
       </c>
@@ -57638,7 +57642,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>82</v>
       </c>
@@ -57826,7 +57830,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>84</v>
       </c>
@@ -57966,7 +57970,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>86</v>
       </c>
@@ -58058,7 +58062,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>88</v>
       </c>
@@ -58246,7 +58250,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>89</v>
       </c>
@@ -58413,7 +58417,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>90</v>
       </c>
@@ -58580,7 +58584,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>93</v>
       </c>
@@ -58609,7 +58613,7 @@
       <c r="BI65" s="29"/>
       <c r="BJ65" s="29"/>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
@@ -58749,7 +58753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>95</v>
       </c>
@@ -58937,7 +58941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>96</v>
       </c>
@@ -59125,7 +59129,7 @@
         <v>19940</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>97</v>
       </c>
@@ -59243,7 +59247,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A70" s="23" t="s">
         <v>98</v>
       </c>
@@ -59371,7 +59375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>99</v>
       </c>
@@ -59496,7 +59500,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A72" s="23" t="s">
         <v>100</v>
       </c>
@@ -59684,7 +59688,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>102</v>
       </c>
@@ -59851,7 +59855,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>104</v>
       </c>
@@ -60039,7 +60043,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>105</v>
       </c>
@@ -60224,7 +60228,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>106</v>
       </c>
@@ -60289,7 +60293,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
         <v>107</v>
       </c>
@@ -60429,7 +60433,7 @@
         <v>7490</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -60572,7 +60576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>110</v>
       </c>
@@ -60760,7 +60764,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>111</v>
       </c>
@@ -60948,7 +60952,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>112</v>
       </c>
@@ -61115,7 +61119,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>113</v>
       </c>
@@ -61303,7 +61307,7 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A83" s="23" t="s">
         <v>116</v>
       </c>
@@ -61416,7 +61420,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>117</v>
       </c>
@@ -61604,7 +61608,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
         <v>118</v>
       </c>
@@ -61792,7 +61796,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
         <v>119</v>
       </c>
@@ -61829,7 +61833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A87" s="23" t="s">
         <v>120</v>
       </c>
@@ -62017,7 +62021,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
         <v>121</v>
       </c>
@@ -62205,7 +62209,7 @@
         <v>9140</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="s">
         <v>122</v>
       </c>
@@ -62393,7 +62397,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="s">
         <v>125</v>
       </c>
@@ -62560,7 +62564,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>126</v>
       </c>
@@ -62646,7 +62650,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>129</v>
       </c>
@@ -62744,7 +62748,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>130</v>
       </c>
@@ -62932,7 +62936,7 @@
         <v>53418</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
         <v>131</v>
       </c>
@@ -63099,7 +63103,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
         <v>133</v>
       </c>
@@ -63200,7 +63204,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
         <v>199</v>
       </c>
@@ -63348,7 +63352,7 @@
       <c r="BI96" s="29"/>
       <c r="BJ96" s="29"/>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="s">
         <v>136</v>
       </c>
@@ -63536,7 +63540,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
         <v>138</v>
       </c>
@@ -63694,7 +63698,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>139</v>
       </c>
@@ -63882,7 +63886,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>140</v>
       </c>
@@ -64031,7 +64035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
         <v>143</v>
       </c>
@@ -64219,7 +64223,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>144</v>
       </c>
@@ -64407,7 +64411,7 @@
         <v>11786</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>146</v>
       </c>
@@ -64589,7 +64593,7 @@
         <v>6496</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>147</v>
       </c>
@@ -64777,7 +64781,7 @@
         <v>35700</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>148</v>
       </c>
@@ -64905,7 +64909,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>149</v>
       </c>
@@ -65072,7 +65076,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>150</v>
       </c>
@@ -65260,7 +65264,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>151</v>
       </c>
@@ -65448,7 +65452,7 @@
         <v>72299</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>153</v>
       </c>
@@ -65636,7 +65640,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>155</v>
       </c>
@@ -65764,7 +65768,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>157</v>
       </c>
@@ -65952,7 +65956,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="s">
         <v>158</v>
       </c>
@@ -66140,7 +66144,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>160</v>
       </c>
@@ -66328,7 +66332,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
         <v>161</v>
       </c>
@@ -66516,7 +66520,7 @@
         <v>98200</v>
       </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>162</v>
       </c>
@@ -66665,7 +66669,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>163</v>
       </c>
@@ -66853,7 +66857,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
         <v>164</v>
       </c>
@@ -66981,7 +66985,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:62" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>173</v>
       </c>
@@ -67063,7 +67067,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A119" s="41" t="s">
         <v>198</v>
       </c>
@@ -67167,7 +67171,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>222</v>
       </c>
@@ -67301,7 +67305,7 @@
         <v>4479.8773739999997</v>
       </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A121" s="23" t="s">
         <v>223</v>
       </c>
@@ -67434,7 +67438,7 @@
         <v>4339.4743289999997</v>
       </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A122" s="41" t="s">
         <v>201</v>
       </c>
@@ -67622,7 +67626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="s">
         <v>224</v>
       </c>
@@ -67759,7 +67763,7 @@
         <v>2536.2604030000002</v>
       </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="s">
         <v>225</v>
       </c>
@@ -67896,7 +67900,7 @@
         <v>1027.1019670000001</v>
       </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="s">
         <v>226</v>
       </c>
@@ -68033,7 +68037,7 @@
         <v>1291.315038</v>
       </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>227</v>
       </c>
@@ -68170,7 +68174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>228</v>
       </c>
@@ -68307,7 +68311,7 @@
         <v>1944.478398</v>
       </c>
     </row>
-    <row r="128" spans="1:62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:62" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>229</v>
       </c>
@@ -68444,7 +68448,7 @@
         <v>845.62887760000001</v>
       </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A129" s="41" t="s">
         <v>200</v>
       </c>
@@ -68559,7 +68563,7 @@
       <c r="BI129" s="29"/>
       <c r="BJ129" s="29"/>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A130" s="52" t="s">
         <v>230</v>
       </c>
@@ -68657,7 +68661,7 @@
         <v>1192.5003508552199</v>
       </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="s">
         <v>154</v>
       </c>
@@ -68749,7 +68753,7 @@
         <v>9535</v>
       </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="s">
         <v>145</v>
       </c>
@@ -68841,7 +68845,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A133" s="23" t="s">
         <v>128</v>
       </c>
@@ -68933,7 +68937,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A134" s="52" t="s">
         <v>231</v>
       </c>
@@ -69031,7 +69035,7 @@
         <v>1362.3917530000001</v>
       </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A135" s="52" t="s">
         <v>232</v>
       </c>
@@ -69153,7 +69157,7 @@
         <v>446.70273312138499</v>
       </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="s">
         <v>152</v>
       </c>
@@ -69245,7 +69249,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="s">
         <v>13</v>
       </c>
@@ -69337,7 +69341,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>159</v>
       </c>
@@ -69429,7 +69433,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="s">
         <v>6</v>
       </c>
@@ -69519,7 +69523,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="s">
         <v>9</v>
       </c>
@@ -69609,7 +69613,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="s">
         <v>79</v>
       </c>
@@ -69699,7 +69703,7 @@
         <v>10810</v>
       </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A142" s="23" t="s">
         <v>101</v>
       </c>
@@ -69791,7 +69795,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="s">
         <v>56</v>
       </c>
@@ -69884,7 +69888,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>85</v>
       </c>
@@ -69976,7 +69980,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="s">
         <v>233</v>
       </c>
